--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML_project\I2ML_ImageClassifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF02D274-FE5F-4B1E-9470-E40139086E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD4E7D5-83AC-43BF-8DCF-32214B5CE87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
-  <si>
-    <t>Forward Pass</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -69,9 +66,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>n_classes_per_batch</t>
-  </si>
-  <si>
     <t>n_samples_per_class</t>
   </si>
   <si>
@@ -103,17 +97,86 @@
   </si>
   <si>
     <t>0.07</t>
+  </si>
+  <si>
+    <t>0.6166</t>
+  </si>
+  <si>
+    <t>Training Loop - 3</t>
+  </si>
+  <si>
+    <t>Training Loop - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Loop - 2 </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.3731</t>
+  </si>
+  <si>
+    <t>Forward Pass/Zero-shot classification</t>
+  </si>
+  <si>
+    <t>FP/Zshot</t>
+  </si>
+  <si>
+    <t>Model selection for FineTun.</t>
+  </si>
+  <si>
+    <t>Once model is selected, proceed with FineTun.</t>
+  </si>
+  <si>
+    <t>0.0871</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.4098</t>
+  </si>
+  <si>
+    <t>0.2056</t>
+  </si>
+  <si>
+    <t>0.1324</t>
+  </si>
+  <si>
+    <t>0.1189</t>
+  </si>
+  <si>
+    <t>0.0842</t>
+  </si>
+  <si>
+    <t>651, 40893470790</t>
+  </si>
+  <si>
+    <t>Fine-tuning (Competition)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Training Loop - 5</t>
+  </si>
+  <si>
+    <t>0.9370</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="175" formatCode="#,##0.00000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.000000000000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +220,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,30 +260,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -493,331 +604,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
     <col min="7" max="8" width="32.5546875" customWidth="1"/>
     <col min="9" max="10" width="26.88671875" customWidth="1"/>
     <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.21875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="28.109375" customWidth="1"/>
+    <col min="16" max="16" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1455</v>
+      </c>
+      <c r="E5" s="7">
+        <v>351.27147766322997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1455</v>
+      </c>
+      <c r="E6" s="23">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1455</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L13" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M13" s="5">
+        <v>1455</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="13">
+        <v>362.199312714776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1455</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="13">
+        <v>906.73539518900304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1455</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="14">
+        <v>895.80756013745702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1455</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="14">
+        <v>865.841924398625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1455</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="19">
+        <v>908.591065292096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="5">
+        <v>2</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="13">
+        <v>900.20618556701004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="13">
+        <v>903.84879725085898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1455</v>
-      </c>
-      <c r="E2" s="8">
-        <v>351.27147766322997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1455</v>
-      </c>
-      <c r="E3" s="9">
-        <v>651.40893470790297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="M25" s="15"/>
+      <c r="N25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="13">
+        <v>894.36426116838402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="20">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="6">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1455</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1455</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1455</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="2">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1455</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="2">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1455</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="19">
+        <v>905.63573883161496</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{2DE2E9F4-21B2-419C-8323-02060A38EE45}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{2DE2E9F4-21B2-419C-8323-02060A38EE45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ML_project\I2ML_ImageClassifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/UniTrento/Courses/Second Semester/I2ML/I2ML_ImageClassifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD4E7D5-83AC-43BF-8DCF-32214B5CE87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647001A-6F88-2042-8BD3-02BE3718DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -170,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00000000000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -263,9 +264,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -279,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,12 +296,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,15 +319,6 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -606,33 +603,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:O16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="8" width="32.5546875" customWidth="1"/>
-    <col min="9" max="10" width="26.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="8" width="32.5" customWidth="1"/>
+    <col min="9" max="10" width="26.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" customWidth="1"/>
     <col min="16" max="16" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -666,8 +663,8 @@
         <v>351.27147766322997</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -679,11 +676,11 @@
       <c r="D6" s="2">
         <v>1455</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -696,19 +693,19 @@
       <c r="D7" s="2">
         <v>1455</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -755,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -802,7 +799,7 @@
         <v>362.199312714776</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -849,7 +846,7 @@
         <v>906.73539518900304</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -896,7 +893,7 @@
         <v>895.80756013745702</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -943,74 +940,74 @@
         <v>865.841924398625</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="17" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="21">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="21" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="5">
         <v>1</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="18">
         <v>1455</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="15">
         <v>908.591065292096</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="5">
         <v>2</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="5" t="s">
         <v>37</v>
       </c>
@@ -1018,22 +1015,22 @@
         <v>900.20618556701004</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="5">
         <v>3</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="5" t="s">
         <v>38</v>
       </c>
@@ -1041,22 +1038,22 @@
         <v>903.84879725085898</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="5">
         <v>4</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="5" t="s">
         <v>39</v>
       </c>
@@ -1064,7 +1061,7 @@
         <v>894.36426116838402</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1076,14 +1073,14 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="20">
+      <c r="L26" s="5">
         <v>5</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="15">
         <v>905.63573883161496</v>
       </c>
     </row>
@@ -1108,4 +1105,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E42F975-D1D4-304E-A9D7-539CC1600E1A}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1455</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="13">
+        <v>362.199312714776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1455</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="13">
+        <v>906.73539518900304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1455</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="14">
+        <v>895.80756013745702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1455</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="14">
+        <v>865.841924398625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>